--- a/mcmaster_excel/Metric_316_Stainless_Steel_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Metric_316_Stainless_Steel_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,110 +434,172 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No. 0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>90116A001</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>$16.81</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>M1.6 × 0.35 mm</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -582,21 +644,29 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>90116A001</t>
+          <t>90116A002</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>$16.81</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -636,26 +706,34 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>90116A002</t>
+          <t>90116A003</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>17.27</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -665,17 +743,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -695,45 +773,101 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>90116A003</t>
+          <t>90116A007</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>90116A008</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -778,21 +912,29 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>90116A007</t>
+          <t>90116A009</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13.18</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -837,21 +979,29 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>90116A008</t>
+          <t>90116A010</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>10.45</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -896,21 +1046,29 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>90116A009</t>
+          <t>90116A015</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10.45</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -955,21 +1113,29 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>90116A010</t>
+          <t>90116A020</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11.81</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1014,21 +1180,29 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>90116A015</t>
+          <t>90116A022</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13.18</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1073,21 +1247,29 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>90116A020</t>
+          <t>90116A025</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13.60</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1132,21 +1314,29 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>90116A022</t>
+          <t>90116A027</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>14.29</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1156,12 +1346,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1171,7 +1361,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1191,21 +1381,29 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>90116A025</t>
+          <t>90116A104</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14.92</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1215,12 +1413,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1250,40 +1448,96 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>90116A027</t>
+          <t>90116A105</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>16.36</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>90116A107</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1308,7 +1562,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1328,21 +1582,29 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>90116A104</t>
+          <t>90116A110</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1387,21 +1649,29 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>90116A105</t>
+          <t>90116A112</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1446,21 +1716,29 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>90116A107</t>
+          <t>90116A113</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1505,21 +1783,29 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>90116A110</t>
+          <t>90116A114</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>11.10</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1564,21 +1850,29 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>90116A112</t>
+          <t>90116A118</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1623,21 +1917,29 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>90116A113</t>
+          <t>90116A124</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11.32</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1677,26 +1979,34 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>90116A114</t>
+          <t>90116A127</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1706,12 +2016,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1721,7 +2031,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1741,21 +2051,29 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>90116A118</t>
+          <t>90116A146</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1765,12 +2083,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,21 +2118,29 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>90116A124</t>
+          <t>90116A147</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1824,12 +2150,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1854,45 +2180,101 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>90116A127</t>
+          <t>90116A150</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>90116A151</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1917,7 +2299,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1937,21 +2319,29 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>90116A146</t>
+          <t>90116A153</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>14.08</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1996,21 +2386,29 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>90116A147</t>
+          <t>90116A155</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>15.71</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2055,21 +2453,29 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>90116A150</t>
+          <t>90116A157</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2114,21 +2520,29 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>90116A151</t>
+          <t>90116A160</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>11.62</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2173,21 +2587,29 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>90116A153</t>
+          <t>90116A161</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>13.24</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2232,21 +2654,29 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>90116A155</t>
+          <t>90116A163</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2291,21 +2721,29 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>90116A157</t>
+          <t>90116A165</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>11.52</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2350,21 +2788,29 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>90116A160</t>
+          <t>90116A169</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13.25</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2409,21 +2855,29 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>90116A161</t>
+          <t>90116A174</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14.04</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2468,21 +2922,29 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>90116A163</t>
+          <t>90116A179</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13.29</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2527,21 +2989,29 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>90116A165</t>
+          <t>90116A184</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2581,26 +3051,34 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>90116A169</t>
+          <t>90116A186</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>18.44</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2640,26 +3118,34 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>90116A174</t>
+          <t>90116A188</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>18.16</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2674,7 +3160,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2699,26 +3185,34 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>90116A179</t>
+          <t>90116A189</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>22.92</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2728,22 +3222,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2763,21 +3257,29 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>90116A184</t>
+          <t>90116A200</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>12.67</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2787,17 +3289,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2817,26 +3319,34 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>90116A186</t>
+          <t>90116A201</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2846,17 +3356,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2876,26 +3386,34 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>90116A188</t>
+          <t>90116A202</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2905,17 +3423,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2935,45 +3453,101 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>90116A189</t>
+          <t>90116A205</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>13.33</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>90116A207</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2998,7 +3572,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3013,26 +3587,34 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>90116A200</t>
+          <t>90116A209</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>16.81</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3072,26 +3654,34 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>90116A201</t>
+          <t>90116A211</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>15.56</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3131,26 +3721,34 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>90116A202</t>
+          <t>90116A213</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>15.68</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3190,26 +3788,34 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>90116A205</t>
+          <t>90116A215</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>20.56</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3254,21 +3860,29 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>90116A207</t>
+          <t>90116A217</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3313,21 +3927,29 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>90116A209</t>
+          <t>90116A221</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>13.94</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3372,21 +3994,29 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>90116A211</t>
+          <t>90116A225</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>14.54</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3431,21 +4061,29 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>90116A213</t>
+          <t>90116A227</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13.82</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3490,21 +4128,29 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>90116A215</t>
+          <t>90116A233</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>16.13</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3544,85 +4190,101 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>90116A217</t>
+          <t>90116A237</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>15.46</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>90116A221</t>
+          <t>90116A240</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>15.80</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3662,26 +4324,34 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>90116A225</t>
+          <t>90116A243</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3691,12 +4361,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3721,26 +4391,34 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>90116A227</t>
+          <t>90116A246</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>24.08</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3750,12 +4428,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3780,26 +4458,34 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>90116A233</t>
+          <t>90116A248</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>15.10</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3809,12 +4495,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3839,85 +4525,101 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>90116A237</t>
+          <t>90116A250</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>15.15</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>90116A240</t>
+          <t>90116A252</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>16.22</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3927,12 +4629,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3957,45 +4659,101 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>90116A243</t>
+          <t>90116A254</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>90116A256</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4040,21 +4798,29 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>90116A246</t>
+          <t>90116A258</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>11.45</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4099,80 +4865,96 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>90116A248</t>
+          <t>90116A260</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>12.40</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>90116A250</t>
+          <t>90116A262</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4212,26 +4994,34 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>90116A252</t>
+          <t>90116A264</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>20.74</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4271,26 +5061,34 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>90116A254</t>
+          <t>90116A267</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4330,26 +5128,34 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>90116A256</t>
+          <t>90116A270</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>21.22</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4389,26 +5195,34 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>90116A258</t>
+          <t>90116A273</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4448,26 +5262,34 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>90116A260</t>
+          <t>90116A276</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4512,21 +5334,29 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>90116A262</t>
+          <t>90116A279</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4571,21 +5401,29 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>90116A264</t>
+          <t>90116A281</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4625,26 +5463,34 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>90116A267</t>
+          <t>90116A283</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10.36</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4654,17 +5500,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4689,21 +5535,29 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>90116A270</t>
+          <t>90116A303</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>11.12</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4713,17 +5567,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4743,26 +5597,34 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>90116A273</t>
+          <t>90116A305</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4772,17 +5634,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4802,26 +5664,34 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>90116A276</t>
+          <t>90116A307</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>12.70</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+          <t>13.48</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4831,17 +5701,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4861,26 +5731,34 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>90116A279</t>
+          <t>90116A311</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>14.39</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4890,17 +5768,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4920,26 +5798,34 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>90116A281</t>
+          <t>90116A315</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>16.19</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4949,17 +5835,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4979,45 +5865,101 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>90116A283</t>
+          <t>90116A317</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>12.38</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>90116A319</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5062,21 +6004,29 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>90116A303</t>
+          <t>90116A321</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>10.25</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5116,26 +6066,34 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>90116A305</t>
+          <t>90116A323</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5175,26 +6133,34 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>90116A307</t>
+          <t>90116A325</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>13.48</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5234,26 +6200,34 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>90116A311</t>
+          <t>90116A327</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>14.02</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5293,26 +6267,34 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>90116A315</t>
+          <t>90116A329</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>17.91</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5352,26 +6334,34 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>90116A317</t>
+          <t>90116A331</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>13.20</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5411,26 +6401,34 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>90116A319</t>
+          <t>90116A333</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>14.34</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5440,17 +6438,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5470,26 +6468,34 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>90116A321</t>
+          <t>90116A405</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>15.32</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5499,17 +6505,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5534,21 +6540,29 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>90116A323</t>
+          <t>90116A408</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5558,17 +6572,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5593,21 +6607,29 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>90116A325</t>
+          <t>90116A411</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>9.73</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5617,17 +6639,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5652,21 +6674,29 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>90116A327</t>
+          <t>90116A413</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5676,17 +6706,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5711,21 +6741,29 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>90116A329</t>
+          <t>90116A415</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5735,17 +6773,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5770,21 +6808,29 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>90116A331</t>
+          <t>90116A417</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>12.68</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5794,17 +6840,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5824,45 +6870,101 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>90116A333</t>
+          <t>90116A419</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>13.85</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>90116A450</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
           <t>M8 × 1.25 mm</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5902,26 +7004,34 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>90116A405</t>
+          <t>90116A423</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5961,493 +7071,29 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>90116A408</t>
+          <t>90116A425</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>90116A411</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>12.38</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>90116A413</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>13.52</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>90116A415</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>14.59</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>90116A417</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>90116A419</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>90116A450</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>90116A423</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>90116A425</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
